--- a/Implementation/Python/experiment5blind.xlsx
+++ b/Implementation/Python/experiment5blind.xlsx
@@ -530,97 +530,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50</v>
+        <v>0.1</v>
       </c>
       <c r="B2" t="n">
-        <v>55.00000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>0.12</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>0.13</v>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>0.14</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>0.15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>0.16</v>
       </c>
       <c r="H2" t="n">
-        <v>85</v>
+        <v>0.17</v>
       </c>
       <c r="I2" t="n">
-        <v>90</v>
+        <v>0.18</v>
       </c>
       <c r="J2" t="n">
-        <v>95</v>
+        <v>0.19</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>0.2</v>
       </c>
       <c r="L2" t="n">
-        <v>105</v>
+        <v>0.21</v>
       </c>
       <c r="M2" t="n">
-        <v>110</v>
+        <v>0.22</v>
       </c>
       <c r="N2" t="n">
-        <v>115</v>
+        <v>0.23</v>
       </c>
       <c r="O2" t="n">
-        <v>120</v>
+        <v>0.24</v>
       </c>
       <c r="P2" t="n">
-        <v>125</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>130</v>
+        <v>0.26</v>
       </c>
       <c r="R2" t="n">
-        <v>135</v>
+        <v>0.27</v>
       </c>
       <c r="S2" t="n">
-        <v>140</v>
+        <v>0.28</v>
       </c>
       <c r="T2" t="n">
-        <v>145</v>
+        <v>0.29</v>
       </c>
       <c r="U2" t="n">
-        <v>150</v>
+        <v>0.3</v>
       </c>
       <c r="V2" t="n">
-        <v>155</v>
+        <v>0.31</v>
       </c>
       <c r="W2" t="n">
-        <v>160</v>
+        <v>0.32</v>
       </c>
       <c r="X2" t="n">
-        <v>165</v>
+        <v>0.33</v>
       </c>
       <c r="Y2" t="n">
-        <v>170</v>
+        <v>0.34</v>
       </c>
       <c r="Z2" t="n">
-        <v>175</v>
+        <v>0.35</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>0.36</v>
       </c>
       <c r="AB2" t="n">
-        <v>185</v>
+        <v>0.37</v>
       </c>
       <c r="AC2" t="n">
-        <v>190</v>
+        <v>0.38</v>
       </c>
       <c r="AD2" t="n">
-        <v>195</v>
+        <v>0.39</v>
       </c>
       <c r="AE2" t="n">
-        <v>200</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -640,82 +640,82 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>125.3072688683952</v>
+        <v>132.1751818352412</v>
       </c>
       <c r="G3" t="n">
-        <v>138.6902128564425</v>
+        <v>132.2927396497351</v>
       </c>
       <c r="H3" t="n">
-        <v>147.5526290480819</v>
+        <v>134.0405700559208</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>134.529551502576</v>
       </c>
       <c r="J3" t="n">
-        <v>142.9949285287603</v>
+        <v>126.9045183985151</v>
       </c>
       <c r="K3" t="n">
-        <v>115.7165486736373</v>
+        <v>119.7203895830189</v>
       </c>
       <c r="L3" t="n">
-        <v>100</v>
+        <v>120.0603135366185</v>
       </c>
       <c r="M3" t="n">
-        <v>106.5642986446596</v>
+        <v>119.2936563223939</v>
       </c>
       <c r="N3" t="n">
-        <v>195.7316945228406</v>
+        <v>120.1436522865847</v>
       </c>
       <c r="O3" t="n">
-        <v>104.7004359959683</v>
+        <v>120.9971017548593</v>
       </c>
       <c r="P3" t="n">
-        <v>95.72581891518092</v>
+        <v>113.7003217597794</v>
       </c>
       <c r="Q3" t="n">
-        <v>88.30852847425081</v>
+        <v>114.1652750405116</v>
       </c>
       <c r="R3" t="n">
-        <v>89.46907406828551</v>
+        <v>116.9001979810995</v>
       </c>
       <c r="S3" t="n">
-        <v>84.95563053855994</v>
+        <v>119.2882469285959</v>
       </c>
       <c r="T3" t="n">
-        <v>127.0168872108247</v>
+        <v>117.7270452967762</v>
       </c>
       <c r="U3" t="n">
-        <v>136.8405465073649</v>
+        <v>116.0954833951343</v>
       </c>
       <c r="V3" t="n">
-        <v>100</v>
+        <v>113.7351170852159</v>
       </c>
       <c r="W3" t="n">
-        <v>129.9006672910432</v>
+        <v>115.0514042956414</v>
       </c>
       <c r="X3" t="n">
-        <v>100</v>
+        <v>114.880258469458</v>
       </c>
       <c r="Y3" t="n">
-        <v>123.7720402263726</v>
+        <v>112.3366378604835</v>
       </c>
       <c r="Z3" t="n">
-        <v>85.70127471583974</v>
+        <v>111.1713526132389</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.7268230239168</v>
+        <v>109.9306552484769</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.9773332536158</v>
+        <v>110.9870527958564</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.7286942692023</v>
+        <v>110.8605257134463</v>
       </c>
       <c r="AD3" t="n">
-        <v>107.3276009826399</v>
+        <v>113.9948248115312</v>
       </c>
       <c r="AE3" t="n">
-        <v>96.96161345569165</v>
+        <v>112.2416512468183</v>
       </c>
     </row>
     <row r="4">
@@ -732,85 +732,85 @@
         <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>119.7684308478929</v>
+        <v>134.9730343875297</v>
       </c>
       <c r="F4" t="n">
-        <v>556.8427643631694</v>
+        <v>136.8361204002202</v>
       </c>
       <c r="G4" t="n">
-        <v>239.9841521379479</v>
+        <v>139.4939497082858</v>
       </c>
       <c r="H4" t="n">
-        <v>148.8259933562121</v>
+        <v>141.4111048220463</v>
       </c>
       <c r="I4" t="n">
-        <v>106.0589236386197</v>
+        <v>139.3886611068985</v>
       </c>
       <c r="J4" t="n">
-        <v>91.53335454246303</v>
+        <v>141.9363235451933</v>
       </c>
       <c r="K4" t="n">
-        <v>133.2655966661156</v>
+        <v>129.8578672175721</v>
       </c>
       <c r="L4" t="n">
-        <v>146.9633988388853</v>
+        <v>131.8489084398121</v>
       </c>
       <c r="M4" t="n">
-        <v>119.8707974990458</v>
+        <v>128.9029957878983</v>
       </c>
       <c r="N4" t="n">
-        <v>137.3708376527416</v>
+        <v>128.3651833557716</v>
       </c>
       <c r="O4" t="n">
-        <v>131.3839508723192</v>
+        <v>123.2235172653549</v>
       </c>
       <c r="P4" t="n">
-        <v>120.9114965341843</v>
+        <v>123.7682921169988</v>
       </c>
       <c r="Q4" t="n">
-        <v>203.6856376101964</v>
+        <v>122.2726822891199</v>
       </c>
       <c r="R4" t="n">
-        <v>97.30059671933206</v>
+        <v>121.3567778023414</v>
       </c>
       <c r="S4" t="n">
-        <v>135.0376010800618</v>
+        <v>121.5458057335009</v>
       </c>
       <c r="T4" t="n">
-        <v>110.3011873342196</v>
+        <v>120.9346938898553</v>
       </c>
       <c r="U4" t="n">
-        <v>144.6168310361721</v>
+        <v>120.7365600886247</v>
       </c>
       <c r="V4" t="n">
-        <v>151.4683073627202</v>
+        <v>121.8397112863881</v>
       </c>
       <c r="W4" t="n">
-        <v>116.3602065103878</v>
+        <v>122.038012395539</v>
       </c>
       <c r="X4" t="n">
-        <v>146.1870319982331</v>
+        <v>119.960128455071</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.7665786026755</v>
+        <v>116.7684765128162</v>
       </c>
       <c r="Z4" t="n">
-        <v>97.4729388956266</v>
+        <v>117.9704892684765</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.9242187318047</v>
+        <v>116.8002869190339</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.4031844085194</v>
+        <v>116.1062683519128</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.762930236885</v>
+        <v>114.3290227724471</v>
       </c>
       <c r="AD4" t="n">
-        <v>139.4888188048264</v>
+        <v>115.5986962134149</v>
       </c>
       <c r="AE4" t="n">
-        <v>119.9353310497944</v>
+        <v>117.3181423950804</v>
       </c>
     </row>
     <row r="5">
@@ -824,88 +824,88 @@
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>92.8399866900175</v>
+        <v>134.6331285201563</v>
       </c>
       <c r="E5" t="n">
-        <v>87.84808339477685</v>
+        <v>134.1816007157872</v>
       </c>
       <c r="F5" t="n">
-        <v>114.3915002674853</v>
+        <v>148.2665906638509</v>
       </c>
       <c r="G5" t="n">
-        <v>151.9311790581409</v>
+        <v>151.3797960626968</v>
       </c>
       <c r="H5" t="n">
-        <v>152.8313848015731</v>
+        <v>154.9746920000987</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4605632554784</v>
+        <v>144.5142147015856</v>
       </c>
       <c r="J5" t="n">
-        <v>115.7059904528034</v>
+        <v>146.1158049945263</v>
       </c>
       <c r="K5" t="n">
-        <v>158.2727880276604</v>
+        <v>133.8250499004892</v>
       </c>
       <c r="L5" t="n">
-        <v>146.2256259341603</v>
+        <v>135.2849118625855</v>
       </c>
       <c r="M5" t="n">
-        <v>124.0494403050094</v>
+        <v>131.3010090636882</v>
       </c>
       <c r="N5" t="n">
-        <v>128.5395545564433</v>
+        <v>129.0865404383916</v>
       </c>
       <c r="O5" t="n">
-        <v>120.1494373220655</v>
+        <v>128.8421477159355</v>
       </c>
       <c r="P5" t="n">
-        <v>144.1362687146241</v>
+        <v>124.2314719941911</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.0023779434993</v>
+        <v>124.1620322515747</v>
       </c>
       <c r="R5" t="n">
-        <v>136.4207011804859</v>
+        <v>126.7207028886649</v>
       </c>
       <c r="S5" t="n">
-        <v>141.4873917292955</v>
+        <v>123.7951532317869</v>
       </c>
       <c r="T5" t="n">
-        <v>195.9037529255975</v>
+        <v>123.6342829371432</v>
       </c>
       <c r="U5" t="n">
-        <v>133.3996636995581</v>
+        <v>124.7015748051752</v>
       </c>
       <c r="V5" t="n">
-        <v>106.9360463566057</v>
+        <v>124.3002272358764</v>
       </c>
       <c r="W5" t="n">
-        <v>134.1838428054667</v>
+        <v>123.9963129036388</v>
       </c>
       <c r="X5" t="n">
-        <v>122.2638935486643</v>
+        <v>121.8894109810816</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.8534717064916</v>
+        <v>122.7321667947742</v>
       </c>
       <c r="Z5" t="n">
-        <v>100.3482179632441</v>
+        <v>121.313792157025</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.8281061057687</v>
+        <v>120.6372103737271</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.3368681791348</v>
+        <v>119.4501437921724</v>
       </c>
       <c r="AC5" t="n">
-        <v>148.8985694906932</v>
+        <v>118.7461732281444</v>
       </c>
       <c r="AD5" t="n">
-        <v>79.60966406927093</v>
+        <v>119.4677992657213</v>
       </c>
       <c r="AE5" t="n">
-        <v>133.1567050305368</v>
+        <v>119.7937398553597</v>
       </c>
     </row>
     <row r="6">
@@ -916,91 +916,91 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>141.9051337857238</v>
+        <v>135.5248381726311</v>
       </c>
       <c r="D6" t="n">
-        <v>108.9034239793537</v>
+        <v>134.7293996002361</v>
       </c>
       <c r="E6" t="n">
-        <v>114.7958396070767</v>
+        <v>151.6095615786778</v>
       </c>
       <c r="F6" t="n">
-        <v>139.0793991220046</v>
+        <v>150.1405965900333</v>
       </c>
       <c r="G6" t="n">
-        <v>188.6503395282504</v>
+        <v>155.761277477516</v>
       </c>
       <c r="H6" t="n">
-        <v>121.8478161822709</v>
+        <v>157.8835787156382</v>
       </c>
       <c r="I6" t="n">
-        <v>201.991812543643</v>
+        <v>149.4607396579765</v>
       </c>
       <c r="J6" t="n">
-        <v>268.3011311923163</v>
+        <v>146.5564881474178</v>
       </c>
       <c r="K6" t="n">
-        <v>110.3345689900244</v>
+        <v>136.2799254208781</v>
       </c>
       <c r="L6" t="n">
-        <v>173.7801424695184</v>
+        <v>136.4021608395735</v>
       </c>
       <c r="M6" t="n">
-        <v>118.593946926372</v>
+        <v>130.4231226701914</v>
       </c>
       <c r="N6" t="n">
-        <v>221.5179016329596</v>
+        <v>132.9064987412166</v>
       </c>
       <c r="O6" t="n">
-        <v>113.4529229570211</v>
+        <v>130.4251668493056</v>
       </c>
       <c r="P6" t="n">
-        <v>150.0294633889455</v>
+        <v>127.5869970458795</v>
       </c>
       <c r="Q6" t="n">
-        <v>99.7069017273752</v>
+        <v>125.4783039655075</v>
       </c>
       <c r="R6" t="n">
-        <v>112.2491434727237</v>
+        <v>127.0697451697266</v>
       </c>
       <c r="S6" t="n">
-        <v>173.691550557</v>
+        <v>125.6502634379567</v>
       </c>
       <c r="T6" t="n">
-        <v>126.7424009961119</v>
+        <v>125.6597012893877</v>
       </c>
       <c r="U6" t="n">
-        <v>119.2347446255558</v>
+        <v>129.5457987864538</v>
       </c>
       <c r="V6" t="n">
-        <v>143.537137646097</v>
+        <v>127.9929324298744</v>
       </c>
       <c r="W6" t="n">
-        <v>111.4589343207847</v>
+        <v>123.5286457465562</v>
       </c>
       <c r="X6" t="n">
-        <v>126.1445061999491</v>
+        <v>125.6689837065768</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.1583411326409</v>
+        <v>125.5732355269931</v>
       </c>
       <c r="Z6" t="n">
-        <v>161.6991013855921</v>
+        <v>123.1780683678468</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.5790492285419</v>
+        <v>121.4076966425846</v>
       </c>
       <c r="AB6" t="n">
-        <v>139.1632732950038</v>
+        <v>122.1198100625</v>
       </c>
       <c r="AC6" t="n">
-        <v>119.5762812025919</v>
+        <v>121.7320188608156</v>
       </c>
       <c r="AD6" t="n">
-        <v>119.0141084098181</v>
+        <v>120.9995598463428</v>
       </c>
       <c r="AE6" t="n">
-        <v>117.3447408465001</v>
+        <v>122.822692331828</v>
       </c>
     </row>
     <row r="7">
@@ -1011,91 +1011,91 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>228.327769750296</v>
+        <v>134.1015965763361</v>
       </c>
       <c r="D7" t="n">
-        <v>184.212242109693</v>
+        <v>136.9591513192814</v>
       </c>
       <c r="E7" t="n">
-        <v>144.3155187901341</v>
+        <v>151.0751405478453</v>
       </c>
       <c r="F7" t="n">
-        <v>199.3435134303412</v>
+        <v>162.8808963567876</v>
       </c>
       <c r="G7" t="n">
-        <v>119.8665592851859</v>
+        <v>162.8521873741439</v>
       </c>
       <c r="H7" t="n">
-        <v>135.8513364740183</v>
+        <v>156.8821098498839</v>
       </c>
       <c r="I7" t="n">
-        <v>165.0949964735704</v>
+        <v>157.361297824593</v>
       </c>
       <c r="J7" t="n">
-        <v>118.8488949524561</v>
+        <v>147.3152434427125</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6483696873738</v>
+        <v>137.8616227804411</v>
       </c>
       <c r="L7" t="n">
-        <v>131.1250861148744</v>
+        <v>138.4796825681593</v>
       </c>
       <c r="M7" t="n">
-        <v>112.5066593310779</v>
+        <v>133.9325420625919</v>
       </c>
       <c r="N7" t="n">
-        <v>155.5093081615996</v>
+        <v>135.6918104035544</v>
       </c>
       <c r="O7" t="n">
-        <v>131.8371184953979</v>
+        <v>131.8328875952643</v>
       </c>
       <c r="P7" t="n">
-        <v>161.2308063565065</v>
+        <v>129.3499240027896</v>
       </c>
       <c r="Q7" t="n">
-        <v>104.767479096913</v>
+        <v>129.5357889696153</v>
       </c>
       <c r="R7" t="n">
-        <v>101.6840984496343</v>
+        <v>127.3461114710271</v>
       </c>
       <c r="S7" t="n">
-        <v>126.3882063628189</v>
+        <v>126.8942999313256</v>
       </c>
       <c r="T7" t="n">
-        <v>124.2335472904039</v>
+        <v>127.4275901513744</v>
       </c>
       <c r="U7" t="n">
-        <v>110.6498398799673</v>
+        <v>130.7071703290157</v>
       </c>
       <c r="V7" t="n">
-        <v>130.4788473847443</v>
+        <v>132.042365703474</v>
       </c>
       <c r="W7" t="n">
-        <v>107.7083369391054</v>
+        <v>128.2517076827664</v>
       </c>
       <c r="X7" t="n">
-        <v>105.8990462808816</v>
+        <v>126.6089381196698</v>
       </c>
       <c r="Y7" t="n">
-        <v>131.1168263956229</v>
+        <v>125.5182921544347</v>
       </c>
       <c r="Z7" t="n">
-        <v>114.6998929181298</v>
+        <v>124.456853656347</v>
       </c>
       <c r="AA7" t="n">
-        <v>135.8912418587023</v>
+        <v>123.9603265189034</v>
       </c>
       <c r="AB7" t="n">
-        <v>137.7514045216804</v>
+        <v>124.9938969084132</v>
       </c>
       <c r="AC7" t="n">
-        <v>141.6728740500764</v>
+        <v>123.6465370016275</v>
       </c>
       <c r="AD7" t="n">
-        <v>119.8065051732994</v>
+        <v>122.2771886952478</v>
       </c>
       <c r="AE7" t="n">
-        <v>113.6816870200307</v>
+        <v>126.4888736357786</v>
       </c>
     </row>
     <row r="8">
@@ -1106,91 +1106,91 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>106.2177332752178</v>
+        <v>131.5550094065971</v>
       </c>
       <c r="D8" t="n">
-        <v>161.9818880018283</v>
+        <v>148.6908355721793</v>
       </c>
       <c r="E8" t="n">
-        <v>267.9024630347075</v>
+        <v>157.2610541353727</v>
       </c>
       <c r="F8" t="n">
-        <v>209.0843238671368</v>
+        <v>164.5373904747632</v>
       </c>
       <c r="G8" t="n">
-        <v>236.611503381816</v>
+        <v>163.0250993531268</v>
       </c>
       <c r="H8" t="n">
-        <v>159.7170541454906</v>
+        <v>166.8648833430999</v>
       </c>
       <c r="I8" t="n">
-        <v>176.3085675518292</v>
+        <v>163.5834689867193</v>
       </c>
       <c r="J8" t="n">
-        <v>153.0175636637872</v>
+        <v>152.6861746755705</v>
       </c>
       <c r="K8" t="n">
-        <v>163.3489835703525</v>
+        <v>141.1008935046368</v>
       </c>
       <c r="L8" t="n">
-        <v>192.407275809337</v>
+        <v>141.9165752276148</v>
       </c>
       <c r="M8" t="n">
-        <v>106.5209738252077</v>
+        <v>137.69578098816</v>
       </c>
       <c r="N8" t="n">
-        <v>103.8862848191784</v>
+        <v>134.1332851610378</v>
       </c>
       <c r="O8" t="n">
-        <v>146.5170194220793</v>
+        <v>133.31530010692</v>
       </c>
       <c r="P8" t="n">
-        <v>110.1737259608346</v>
+        <v>130.8661301313172</v>
       </c>
       <c r="Q8" t="n">
-        <v>119.1638395365515</v>
+        <v>128.4711231177175</v>
       </c>
       <c r="R8" t="n">
-        <v>150.5418157698255</v>
+        <v>128.4338211068068</v>
       </c>
       <c r="S8" t="n">
-        <v>161.6197287974583</v>
+        <v>128.0397197021653</v>
       </c>
       <c r="T8" t="n">
-        <v>150.160573515246</v>
+        <v>129.6663650933803</v>
       </c>
       <c r="U8" t="n">
-        <v>113.9480905672706</v>
+        <v>133.9460222409809</v>
       </c>
       <c r="V8" t="n">
-        <v>171.8789997650113</v>
+        <v>134.3804317789113</v>
       </c>
       <c r="W8" t="n">
-        <v>122.1034689167748</v>
+        <v>131.4957700286285</v>
       </c>
       <c r="X8" t="n">
-        <v>130.2363452378602</v>
+        <v>129.6070049827717</v>
       </c>
       <c r="Y8" t="n">
-        <v>125.3682691030949</v>
+        <v>129.0861837859695</v>
       </c>
       <c r="Z8" t="n">
-        <v>128.7804243782288</v>
+        <v>128.1396125335267</v>
       </c>
       <c r="AA8" t="n">
-        <v>130.2625720171254</v>
+        <v>125.5469792754449</v>
       </c>
       <c r="AB8" t="n">
-        <v>142.9178548073911</v>
+        <v>126.7593715975286</v>
       </c>
       <c r="AC8" t="n">
-        <v>139.0150850566641</v>
+        <v>124.2759087297041</v>
       </c>
       <c r="AD8" t="n">
-        <v>123.2382178950761</v>
+        <v>124.7713806572307</v>
       </c>
       <c r="AE8" t="n">
-        <v>149.820190496486</v>
+        <v>128.6821997242531</v>
       </c>
     </row>
     <row r="9">
@@ -1201,91 +1201,91 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>125.5925038026383</v>
+        <v>133.5180060932452</v>
       </c>
       <c r="D9" t="n">
-        <v>163.2089356513047</v>
+        <v>158.9556615879894</v>
       </c>
       <c r="E9" t="n">
-        <v>285.7448604922476</v>
+        <v>165.2752837132566</v>
       </c>
       <c r="F9" t="n">
-        <v>146.3393093440436</v>
+        <v>171.0846950262939</v>
       </c>
       <c r="G9" t="n">
-        <v>128.5803316354369</v>
+        <v>171.8787570143596</v>
       </c>
       <c r="H9" t="n">
-        <v>168.8541908210624</v>
+        <v>166.4760356287589</v>
       </c>
       <c r="I9" t="n">
-        <v>132.7704946885716</v>
+        <v>160.5584418892131</v>
       </c>
       <c r="J9" t="n">
-        <v>124.3449525239991</v>
+        <v>150.5940662248839</v>
       </c>
       <c r="K9" t="n">
-        <v>124.3613564435112</v>
+        <v>142.9252729719349</v>
       </c>
       <c r="L9" t="n">
-        <v>130.5333271372229</v>
+        <v>144.0971944603331</v>
       </c>
       <c r="M9" t="n">
-        <v>126.0735262396124</v>
+        <v>138.8696697127951</v>
       </c>
       <c r="N9" t="n">
-        <v>151.2148666169882</v>
+        <v>134.8734913085767</v>
       </c>
       <c r="O9" t="n">
-        <v>141.970108238778</v>
+        <v>133.3460761415195</v>
       </c>
       <c r="P9" t="n">
-        <v>121.6966634052755</v>
+        <v>130.8580000318193</v>
       </c>
       <c r="Q9" t="n">
-        <v>141.8391564635559</v>
+        <v>129.1718960329725</v>
       </c>
       <c r="R9" t="n">
-        <v>132.6043884688988</v>
+        <v>129.3332494052119</v>
       </c>
       <c r="S9" t="n">
-        <v>133.4541469019388</v>
+        <v>129.181119609306</v>
       </c>
       <c r="T9" t="n">
-        <v>141.0624626410331</v>
+        <v>131.5364603025054</v>
       </c>
       <c r="U9" t="n">
-        <v>136.6372947582944</v>
+        <v>136.2863994700818</v>
       </c>
       <c r="V9" t="n">
-        <v>105.5822249896194</v>
+        <v>137.7859476600698</v>
       </c>
       <c r="W9" t="n">
-        <v>125.6434540932441</v>
+        <v>132.9751412898459</v>
       </c>
       <c r="X9" t="n">
-        <v>128.1197265779074</v>
+        <v>131.8509762039482</v>
       </c>
       <c r="Y9" t="n">
-        <v>116.0290071419445</v>
+        <v>130.434095097642</v>
       </c>
       <c r="Z9" t="n">
-        <v>146.9576605831967</v>
+        <v>128.7596639948695</v>
       </c>
       <c r="AA9" t="n">
-        <v>114.2782910311835</v>
+        <v>126.87584510904</v>
       </c>
       <c r="AB9" t="n">
-        <v>161.9097116658417</v>
+        <v>127.3441311234227</v>
       </c>
       <c r="AC9" t="n">
-        <v>102.4351108397676</v>
+        <v>125.7856726198971</v>
       </c>
       <c r="AD9" t="n">
-        <v>110.4046639265464</v>
+        <v>126.5956118862848</v>
       </c>
       <c r="AE9" t="n">
-        <v>137.0519299787852</v>
+        <v>130.6636413090256</v>
       </c>
     </row>
     <row r="10">
@@ -1296,91 +1296,91 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5710176458827</v>
+        <v>130.8686871488864</v>
       </c>
       <c r="D10" t="n">
-        <v>193.1823933776874</v>
+        <v>153.4902148143258</v>
       </c>
       <c r="E10" t="n">
-        <v>139.9340315873661</v>
+        <v>169.7066477350545</v>
       </c>
       <c r="F10" t="n">
-        <v>116.6920953941777</v>
+        <v>171.5534991060448</v>
       </c>
       <c r="G10" t="n">
-        <v>180.9895327024251</v>
+        <v>173.1771677614093</v>
       </c>
       <c r="H10" t="n">
-        <v>147.1827137763451</v>
+        <v>169.0386160595087</v>
       </c>
       <c r="I10" t="n">
-        <v>185.8831221700171</v>
+        <v>160.5989280562329</v>
       </c>
       <c r="J10" t="n">
-        <v>161.1641626812751</v>
+        <v>154.6495670068159</v>
       </c>
       <c r="K10" t="n">
-        <v>165.4008729407138</v>
+        <v>144.2594839462665</v>
       </c>
       <c r="L10" t="n">
-        <v>143.3581104358168</v>
+        <v>143.4415626086277</v>
       </c>
       <c r="M10" t="n">
-        <v>122.7620785087371</v>
+        <v>139.2513037866158</v>
       </c>
       <c r="N10" t="n">
-        <v>129.3894793756785</v>
+        <v>136.5679343249518</v>
       </c>
       <c r="O10" t="n">
-        <v>113.0287243115613</v>
+        <v>134.758196066183</v>
       </c>
       <c r="P10" t="n">
-        <v>154.3549886138954</v>
+        <v>132.9194282820861</v>
       </c>
       <c r="Q10" t="n">
-        <v>137.0651397131309</v>
+        <v>131.5147851527416</v>
       </c>
       <c r="R10" t="n">
-        <v>146.2414070569391</v>
+        <v>129.6702227856138</v>
       </c>
       <c r="S10" t="n">
-        <v>130.8966539320032</v>
+        <v>132.2209511810313</v>
       </c>
       <c r="T10" t="n">
-        <v>128.3789183436586</v>
+        <v>135.1707290743668</v>
       </c>
       <c r="U10" t="n">
-        <v>167.034284354897</v>
+        <v>138.2544718095056</v>
       </c>
       <c r="V10" t="n">
-        <v>128.3318902266717</v>
+        <v>138.225355029999</v>
       </c>
       <c r="W10" t="n">
-        <v>137.9237261866677</v>
+        <v>136.7947135179012</v>
       </c>
       <c r="X10" t="n">
-        <v>131.0539124876736</v>
+        <v>134.4447990246672</v>
       </c>
       <c r="Y10" t="n">
-        <v>114.4630232477664</v>
+        <v>131.7879684272141</v>
       </c>
       <c r="Z10" t="n">
-        <v>103.1041723703572</v>
+        <v>129.4340981153082</v>
       </c>
       <c r="AA10" t="n">
-        <v>142.6917966083571</v>
+        <v>129.6136753550003</v>
       </c>
       <c r="AB10" t="n">
-        <v>114.0850749813142</v>
+        <v>127.2906059255022</v>
       </c>
       <c r="AC10" t="n">
-        <v>120.5553034871749</v>
+        <v>127.49722907873</v>
       </c>
       <c r="AD10" t="n">
-        <v>123.6984555743679</v>
+        <v>128.1774661420123</v>
       </c>
       <c r="AE10" t="n">
-        <v>120.9917800310108</v>
+        <v>131.0896857957404</v>
       </c>
     </row>
     <row r="11">
@@ -1388,94 +1388,94 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>125.4014895022486</v>
+        <v>136.203069018619</v>
       </c>
       <c r="C11" t="n">
-        <v>112.7678971658643</v>
+        <v>152.3230457334091</v>
       </c>
       <c r="D11" t="n">
-        <v>205.1039041286737</v>
+        <v>166.2478934565715</v>
       </c>
       <c r="E11" t="n">
-        <v>148.8124887040842</v>
+        <v>178.096847942176</v>
       </c>
       <c r="F11" t="n">
-        <v>197.9856280949208</v>
+        <v>178.481368670566</v>
       </c>
       <c r="G11" t="n">
-        <v>147.8223026586177</v>
+        <v>174.4622292253786</v>
       </c>
       <c r="H11" t="n">
-        <v>198.1971374424128</v>
+        <v>169.4488641381586</v>
       </c>
       <c r="I11" t="n">
-        <v>168.5928445959772</v>
+        <v>160.6303705490517</v>
       </c>
       <c r="J11" t="n">
-        <v>133.651998520633</v>
+        <v>152.7553274498474</v>
       </c>
       <c r="K11" t="n">
-        <v>157.0048808458247</v>
+        <v>145.4971369388093</v>
       </c>
       <c r="L11" t="n">
-        <v>150.0142259357002</v>
+        <v>141.9925483280727</v>
       </c>
       <c r="M11" t="n">
-        <v>150.3097829978025</v>
+        <v>136.7496504111995</v>
       </c>
       <c r="N11" t="n">
-        <v>144.5726857398782</v>
+        <v>135.6144605604748</v>
       </c>
       <c r="O11" t="n">
-        <v>128.9327497080409</v>
+        <v>132.3365131040289</v>
       </c>
       <c r="P11" t="n">
-        <v>120.8445519693508</v>
+        <v>131.2180908724813</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.9372844399209</v>
+        <v>130.4966402068194</v>
       </c>
       <c r="R11" t="n">
-        <v>121.485897774349</v>
+        <v>131.5585896009477</v>
       </c>
       <c r="S11" t="n">
-        <v>167.8130957619989</v>
+        <v>132.1868468027031</v>
       </c>
       <c r="T11" t="n">
-        <v>117.4145323718624</v>
+        <v>135.8322181048062</v>
       </c>
       <c r="U11" t="n">
-        <v>133.1849100969667</v>
+        <v>139.8226784925783</v>
       </c>
       <c r="V11" t="n">
-        <v>146.8711472687287</v>
+        <v>137.9075230463436</v>
       </c>
       <c r="W11" t="n">
-        <v>150.8764239103406</v>
+        <v>137.0509636005986</v>
       </c>
       <c r="X11" t="n">
-        <v>148.0978324180684</v>
+        <v>133.1614194679726</v>
       </c>
       <c r="Y11" t="n">
-        <v>120.0284202371732</v>
+        <v>131.9973417349956</v>
       </c>
       <c r="Z11" t="n">
-        <v>130.2607564410509</v>
+        <v>129.7017990388547</v>
       </c>
       <c r="AA11" t="n">
-        <v>132.4506653368645</v>
+        <v>129.2682356768305</v>
       </c>
       <c r="AB11" t="n">
-        <v>154.5661601701587</v>
+        <v>128.0680196802667</v>
       </c>
       <c r="AC11" t="n">
-        <v>141.3134922901477</v>
+        <v>128.7295674124643</v>
       </c>
       <c r="AD11" t="n">
-        <v>114.5287857493737</v>
+        <v>129.6072688067231</v>
       </c>
       <c r="AE11" t="n">
-        <v>116.3285068266284</v>
+        <v>132.9342702717822</v>
       </c>
     </row>
     <row r="12">
@@ -1483,94 +1483,94 @@
         <v>100</v>
       </c>
       <c r="B12" t="n">
-        <v>133.9553836466466</v>
+        <v>133.6435493102164</v>
       </c>
       <c r="C12" t="n">
-        <v>104.6532824711671</v>
+        <v>154.8185260371351</v>
       </c>
       <c r="D12" t="n">
-        <v>136.7637444375479</v>
+        <v>168.7410657887451</v>
       </c>
       <c r="E12" t="n">
-        <v>173.3901883795012</v>
+        <v>179.0943229464031</v>
       </c>
       <c r="F12" t="n">
-        <v>159.720029108777</v>
+        <v>179.865207745132</v>
       </c>
       <c r="G12" t="n">
-        <v>212.0218362746043</v>
+        <v>179.0809388301224</v>
       </c>
       <c r="H12" t="n">
-        <v>181.0178506367515</v>
+        <v>175.3915878935532</v>
       </c>
       <c r="I12" t="n">
-        <v>187.5157191153016</v>
+        <v>168.8437748449091</v>
       </c>
       <c r="J12" t="n">
-        <v>223.9227981297187</v>
+        <v>161.8767415119788</v>
       </c>
       <c r="K12" t="n">
-        <v>143.9943452154831</v>
+        <v>145.0025654798464</v>
       </c>
       <c r="L12" t="n">
-        <v>122.4900905557723</v>
+        <v>140.4850144392059</v>
       </c>
       <c r="M12" t="n">
-        <v>146.7157163124274</v>
+        <v>139.2312790174836</v>
       </c>
       <c r="N12" t="n">
-        <v>151.0198170894526</v>
+        <v>137.5359072857201</v>
       </c>
       <c r="O12" t="n">
-        <v>131.7738830707529</v>
+        <v>134.7823184208272</v>
       </c>
       <c r="P12" t="n">
-        <v>143.0427178998582</v>
+        <v>132.7751406264699</v>
       </c>
       <c r="Q12" t="n">
-        <v>118.3309542031709</v>
+        <v>132.2893898854051</v>
       </c>
       <c r="R12" t="n">
-        <v>134.2324701957834</v>
+        <v>132.9102942430283</v>
       </c>
       <c r="S12" t="n">
-        <v>138.2949370885044</v>
+        <v>133.9566962329309</v>
       </c>
       <c r="T12" t="n">
-        <v>109.0930555456726</v>
+        <v>134.4344635273318</v>
       </c>
       <c r="U12" t="n">
-        <v>144.4531699408706</v>
+        <v>142.3684878471499</v>
       </c>
       <c r="V12" t="n">
-        <v>138.0425390048376</v>
+        <v>138.5404388544971</v>
       </c>
       <c r="W12" t="n">
-        <v>137.9384624174966</v>
+        <v>137.9784460529231</v>
       </c>
       <c r="X12" t="n">
-        <v>123.0481871609523</v>
+        <v>135.5135095245954</v>
       </c>
       <c r="Y12" t="n">
-        <v>110.0982649800081</v>
+        <v>134.2898183699307</v>
       </c>
       <c r="Z12" t="n">
-        <v>116.3667659826414</v>
+        <v>131.9308389944478</v>
       </c>
       <c r="AA12" t="n">
-        <v>126.5637770823602</v>
+        <v>131.0725438299852</v>
       </c>
       <c r="AB12" t="n">
-        <v>128.5914524489778</v>
+        <v>131.0047968451011</v>
       </c>
       <c r="AC12" t="n">
-        <v>124.1702122118123</v>
+        <v>130.062376210163</v>
       </c>
       <c r="AD12" t="n">
-        <v>125.8195954367431</v>
+        <v>128.4508884011586</v>
       </c>
       <c r="AE12" t="n">
-        <v>165.5849952946432</v>
+        <v>135.3650457873908</v>
       </c>
     </row>
     <row r="13">
@@ -1578,94 +1578,94 @@
         <v>100</v>
       </c>
       <c r="B13" t="n">
-        <v>151.9654904792404</v>
+        <v>126.8401268583213</v>
       </c>
       <c r="C13" t="n">
-        <v>92.14279374662119</v>
+        <v>153.9583685273303</v>
       </c>
       <c r="D13" t="n">
-        <v>173.5377153333286</v>
+        <v>171.095309503937</v>
       </c>
       <c r="E13" t="n">
-        <v>206.5232663861455</v>
+        <v>182.2095105086363</v>
       </c>
       <c r="F13" t="n">
-        <v>214.5511939527173</v>
+        <v>181.2766048953326</v>
       </c>
       <c r="G13" t="n">
-        <v>154.8181504571222</v>
+        <v>178.8598439409723</v>
       </c>
       <c r="H13" t="n">
-        <v>149.7080442511526</v>
+        <v>174.9008598210482</v>
       </c>
       <c r="I13" t="n">
-        <v>151.15228790838</v>
+        <v>169.2562800583239</v>
       </c>
       <c r="J13" t="n">
-        <v>203.3899738073804</v>
+        <v>161.1005381800043</v>
       </c>
       <c r="K13" t="n">
-        <v>133.4591105860155</v>
+        <v>145.258671915676</v>
       </c>
       <c r="L13" t="n">
-        <v>183.6553845389145</v>
+        <v>141.4475687055367</v>
       </c>
       <c r="M13" t="n">
-        <v>141.4388025438738</v>
+        <v>139.9111074334466</v>
       </c>
       <c r="N13" t="n">
-        <v>142.0333497122325</v>
+        <v>137.9523649166179</v>
       </c>
       <c r="O13" t="n">
-        <v>137.1771831824803</v>
+        <v>135.4340131395941</v>
       </c>
       <c r="P13" t="n">
-        <v>116.6708882889979</v>
+        <v>133.917315227531</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.9438520395209</v>
+        <v>134.1290296685008</v>
       </c>
       <c r="R13" t="n">
-        <v>143.3330230019241</v>
+        <v>134.2765733201731</v>
       </c>
       <c r="S13" t="n">
-        <v>121.652788811971</v>
+        <v>131.9917646588635</v>
       </c>
       <c r="T13" t="n">
-        <v>153.7655881341782</v>
+        <v>135.8729814928243</v>
       </c>
       <c r="U13" t="n">
-        <v>141.4367875174955</v>
+        <v>142.33453000157</v>
       </c>
       <c r="V13" t="n">
-        <v>167.695974586378</v>
+        <v>141.6190012605264</v>
       </c>
       <c r="W13" t="n">
-        <v>147.0389300261886</v>
+        <v>138.5482098603576</v>
       </c>
       <c r="X13" t="n">
-        <v>132.6493063103893</v>
+        <v>136.9684602774772</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.0656168257458</v>
+        <v>136.0608636264709</v>
       </c>
       <c r="Z13" t="n">
-        <v>138.4256791175439</v>
+        <v>132.6648889822653</v>
       </c>
       <c r="AA13" t="n">
-        <v>120.8844811865855</v>
+        <v>131.9828416833233</v>
       </c>
       <c r="AB13" t="n">
-        <v>137.8836570007122</v>
+        <v>129.5774079426041</v>
       </c>
       <c r="AC13" t="n">
-        <v>148.0081216140879</v>
+        <v>130.2083687761013</v>
       </c>
       <c r="AD13" t="n">
-        <v>133.0983681714358</v>
+        <v>129.9839258518236</v>
       </c>
       <c r="AE13" t="n">
-        <v>159.5455527554947</v>
+        <v>135.8769351106334</v>
       </c>
     </row>
     <row r="14">
@@ -1673,94 +1673,94 @@
         <v>100</v>
       </c>
       <c r="B14" t="n">
-        <v>95.64583529880812</v>
+        <v>127.5454821012195</v>
       </c>
       <c r="C14" t="n">
-        <v>172.0354996238181</v>
+        <v>155.9590066639656</v>
       </c>
       <c r="D14" t="n">
-        <v>217.411504549749</v>
+        <v>170.0607343442407</v>
       </c>
       <c r="E14" t="n">
-        <v>199.2327331149375</v>
+        <v>184.8340748467857</v>
       </c>
       <c r="F14" t="n">
-        <v>173.2309810356964</v>
+        <v>183.7573195060464</v>
       </c>
       <c r="G14" t="n">
-        <v>166.5738710553592</v>
+        <v>185.2551159863791</v>
       </c>
       <c r="H14" t="n">
-        <v>158.9768314528253</v>
+        <v>174.3569193072587</v>
       </c>
       <c r="I14" t="n">
-        <v>170.0041226502376</v>
+        <v>167.6005648612889</v>
       </c>
       <c r="J14" t="n">
-        <v>169.4406237289672</v>
+        <v>161.5393861090724</v>
       </c>
       <c r="K14" t="n">
-        <v>144.4842263178705</v>
+        <v>144.7389365543808</v>
       </c>
       <c r="L14" t="n">
-        <v>128.2608031597277</v>
+        <v>142.8236144497377</v>
       </c>
       <c r="M14" t="n">
-        <v>115.1044885807068</v>
+        <v>141.4144258705857</v>
       </c>
       <c r="N14" t="n">
-        <v>122.9215215763861</v>
+        <v>139.2395891816357</v>
       </c>
       <c r="O14" t="n">
-        <v>135.3786145198817</v>
+        <v>135.6949781417733</v>
       </c>
       <c r="P14" t="n">
-        <v>139.5230161339538</v>
+        <v>134.8590200395907</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.4209801717899</v>
+        <v>132.6088483112926</v>
       </c>
       <c r="R14" t="n">
-        <v>123.6831564062053</v>
+        <v>135.2588577579556</v>
       </c>
       <c r="S14" t="n">
-        <v>134.6417697631396</v>
+        <v>135.4850436143585</v>
       </c>
       <c r="T14" t="n">
-        <v>172.6677359918416</v>
+        <v>138.2990130309415</v>
       </c>
       <c r="U14" t="n">
-        <v>165.688752671282</v>
+        <v>145.7415098776827</v>
       </c>
       <c r="V14" t="n">
-        <v>138.2287332382306</v>
+        <v>141.0066172699278</v>
       </c>
       <c r="W14" t="n">
-        <v>123.2267990723589</v>
+        <v>140.8263221667812</v>
       </c>
       <c r="X14" t="n">
-        <v>145.6809974595733</v>
+        <v>137.8475595643827</v>
       </c>
       <c r="Y14" t="n">
-        <v>139.8786352759428</v>
+        <v>135.7430431346215</v>
       </c>
       <c r="Z14" t="n">
-        <v>141.75120072564</v>
+        <v>133.9500427143891</v>
       </c>
       <c r="AA14" t="n">
-        <v>105.9724008554553</v>
+        <v>132.8198907483307</v>
       </c>
       <c r="AB14" t="n">
-        <v>118.1258964111279</v>
+        <v>130.9495153807629</v>
       </c>
       <c r="AC14" t="n">
-        <v>121.5484211523301</v>
+        <v>130.2598971171115</v>
       </c>
       <c r="AD14" t="n">
-        <v>121.3180969677563</v>
+        <v>129.6127649188952</v>
       </c>
       <c r="AE14" t="n">
-        <v>124.7856877261824</v>
+        <v>136.9821444552998</v>
       </c>
     </row>
     <row r="15">
@@ -1768,94 +1768,94 @@
         <v>100</v>
       </c>
       <c r="B15" t="n">
-        <v>163.283855279392</v>
+        <v>129.5738158722885</v>
       </c>
       <c r="C15" t="n">
-        <v>240.1183409290142</v>
+        <v>154.8305481605892</v>
       </c>
       <c r="D15" t="n">
-        <v>164.1867178825847</v>
+        <v>178.7141717521695</v>
       </c>
       <c r="E15" t="n">
-        <v>205.184894307187</v>
+        <v>187.9486872333317</v>
       </c>
       <c r="F15" t="n">
-        <v>210.1298702400567</v>
+        <v>187.9881105614926</v>
       </c>
       <c r="G15" t="n">
-        <v>150.968115291545</v>
+        <v>183.0942118478974</v>
       </c>
       <c r="H15" t="n">
-        <v>160.5435950242529</v>
+        <v>179.6582153799271</v>
       </c>
       <c r="I15" t="n">
-        <v>142.2155720928861</v>
+        <v>165.8657920221086</v>
       </c>
       <c r="J15" t="n">
-        <v>152.7214783764107</v>
+        <v>159.8102617530208</v>
       </c>
       <c r="K15" t="n">
-        <v>135.4866650934532</v>
+        <v>146.3406729862836</v>
       </c>
       <c r="L15" t="n">
-        <v>128.2755782363912</v>
+        <v>144.6852802917786</v>
       </c>
       <c r="M15" t="n">
-        <v>149.1885220800797</v>
+        <v>141.539824221271</v>
       </c>
       <c r="N15" t="n">
-        <v>151.6363066993992</v>
+        <v>138.1521940578936</v>
       </c>
       <c r="O15" t="n">
-        <v>140.1534780792703</v>
+        <v>136.7080110874878</v>
       </c>
       <c r="P15" t="n">
-        <v>134.5331738650412</v>
+        <v>136.9049635785169</v>
       </c>
       <c r="Q15" t="n">
-        <v>125.0755479352582</v>
+        <v>134.4244516859254</v>
       </c>
       <c r="R15" t="n">
-        <v>139.8571735039668</v>
+        <v>134.900169917089</v>
       </c>
       <c r="S15" t="n">
-        <v>164.8166830673909</v>
+        <v>136.7304163304493</v>
       </c>
       <c r="T15" t="n">
-        <v>126.6701980465851</v>
+        <v>138.4603204710897</v>
       </c>
       <c r="U15" t="n">
-        <v>123.9832114671858</v>
+        <v>144.5299685645851</v>
       </c>
       <c r="V15" t="n">
-        <v>151.5109308703533</v>
+        <v>142.9620959240139</v>
       </c>
       <c r="W15" t="n">
-        <v>152.9036361420991</v>
+        <v>141.6302400614814</v>
       </c>
       <c r="X15" t="n">
-        <v>136.8196519448019</v>
+        <v>138.1828756244039</v>
       </c>
       <c r="Y15" t="n">
-        <v>164.1184439568232</v>
+        <v>136.406045404177</v>
       </c>
       <c r="Z15" t="n">
-        <v>132.2413691902991</v>
+        <v>133.0938009183263</v>
       </c>
       <c r="AA15" t="n">
-        <v>125.2450921439304</v>
+        <v>131.9035158853167</v>
       </c>
       <c r="AB15" t="n">
-        <v>141.5732853984215</v>
+        <v>131.7867532770875</v>
       </c>
       <c r="AC15" t="n">
-        <v>125.7712255265589</v>
+        <v>130.7805804306718</v>
       </c>
       <c r="AD15" t="n">
-        <v>141.0201846263523</v>
+        <v>131.0208537740109</v>
       </c>
       <c r="AE15" t="n">
-        <v>131.2765891115964</v>
+        <v>138.7587866181319</v>
       </c>
     </row>
     <row r="16">
@@ -1863,94 +1863,94 @@
         <v>100</v>
       </c>
       <c r="B16" t="n">
-        <v>178.7509935001361</v>
+        <v>127.2421534666959</v>
       </c>
       <c r="C16" t="n">
-        <v>156.8955243820272</v>
+        <v>168.6728522441151</v>
       </c>
       <c r="D16" t="n">
-        <v>190.4898323429268</v>
+        <v>183.0426962612946</v>
       </c>
       <c r="E16" t="n">
-        <v>184.5612878584647</v>
+        <v>189.2048012330636</v>
       </c>
       <c r="F16" t="n">
-        <v>164.1923464738319</v>
+        <v>192.0232914396251</v>
       </c>
       <c r="G16" t="n">
-        <v>192.0739221861902</v>
+        <v>184.4151390280964</v>
       </c>
       <c r="H16" t="n">
-        <v>169.6700412203354</v>
+        <v>176.8142300166689</v>
       </c>
       <c r="I16" t="n">
-        <v>151.9779484106096</v>
+        <v>167.6511718864803</v>
       </c>
       <c r="J16" t="n">
-        <v>150.1329052229974</v>
+        <v>159.0526182758431</v>
       </c>
       <c r="K16" t="n">
-        <v>155.7857116829211</v>
+        <v>146.2591968026729</v>
       </c>
       <c r="L16" t="n">
-        <v>119.7676992992116</v>
+        <v>144.3867432696985</v>
       </c>
       <c r="M16" t="n">
-        <v>124.8585601702363</v>
+        <v>140.9612332718385</v>
       </c>
       <c r="N16" t="n">
-        <v>188.8367080636512</v>
+        <v>139.7157358369746</v>
       </c>
       <c r="O16" t="n">
-        <v>112.169196950495</v>
+        <v>137.1636020611338</v>
       </c>
       <c r="P16" t="n">
-        <v>143.1109754683968</v>
+        <v>136.3484132374075</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.4717458217081</v>
+        <v>135.511132393512</v>
       </c>
       <c r="R16" t="n">
-        <v>133.187828813971</v>
+        <v>135.2483376458154</v>
       </c>
       <c r="S16" t="n">
-        <v>157.552449932762</v>
+        <v>136.9910885951199</v>
       </c>
       <c r="T16" t="n">
-        <v>149.0602495029452</v>
+        <v>139.9402878285197</v>
       </c>
       <c r="U16" t="n">
-        <v>130.5271546680252</v>
+        <v>147.5852659188505</v>
       </c>
       <c r="V16" t="n">
-        <v>151.2794510415199</v>
+        <v>144.5108389623466</v>
       </c>
       <c r="W16" t="n">
-        <v>144.8792299516056</v>
+        <v>141.8047846555926</v>
       </c>
       <c r="X16" t="n">
-        <v>146.6460376749288</v>
+        <v>139.2342437065278</v>
       </c>
       <c r="Y16" t="n">
-        <v>147.8298226379645</v>
+        <v>136.5419402689616</v>
       </c>
       <c r="Z16" t="n">
-        <v>122.8755605435082</v>
+        <v>135.1894116398813</v>
       </c>
       <c r="AA16" t="n">
-        <v>155.7127592674665</v>
+        <v>132.847162351565</v>
       </c>
       <c r="AB16" t="n">
-        <v>136.0321223805649</v>
+        <v>131.7165287563681</v>
       </c>
       <c r="AC16" t="n">
-        <v>140.9201109222943</v>
+        <v>130.32607959934</v>
       </c>
       <c r="AD16" t="n">
-        <v>139.5624170168724</v>
+        <v>131.9484897853313</v>
       </c>
       <c r="AE16" t="n">
-        <v>139.6410965827771</v>
+        <v>139.1154683225019</v>
       </c>
     </row>
     <row r="17">
@@ -1958,94 +1958,94 @@
         <v>100</v>
       </c>
       <c r="B17" t="n">
-        <v>122.6522224468601</v>
+        <v>127.9767482955878</v>
       </c>
       <c r="C17" t="n">
-        <v>103.0955719995634</v>
+        <v>173.8800267267456</v>
       </c>
       <c r="D17" t="n">
-        <v>271.0496259803955</v>
+        <v>184.5605975627205</v>
       </c>
       <c r="E17" t="n">
-        <v>182.1397485422449</v>
+        <v>192.8074676996901</v>
       </c>
       <c r="F17" t="n">
-        <v>178.9845654797352</v>
+        <v>190.3779042182636</v>
       </c>
       <c r="G17" t="n">
-        <v>165.5264640666876</v>
+        <v>187.0618013694146</v>
       </c>
       <c r="H17" t="n">
-        <v>185.2488120879955</v>
+        <v>177.3257911990762</v>
       </c>
       <c r="I17" t="n">
-        <v>182.428045166641</v>
+        <v>172.0652037640478</v>
       </c>
       <c r="J17" t="n">
-        <v>158.1913101969548</v>
+        <v>159.0278760334326</v>
       </c>
       <c r="K17" t="n">
-        <v>130.4280738409971</v>
+        <v>146.940658818396</v>
       </c>
       <c r="L17" t="n">
-        <v>131.7346187491502</v>
+        <v>144.8060379580758</v>
       </c>
       <c r="M17" t="n">
-        <v>127.9734689836263</v>
+        <v>143.0622828897921</v>
       </c>
       <c r="N17" t="n">
-        <v>135.746111691157</v>
+        <v>139.5211941866542</v>
       </c>
       <c r="O17" t="n">
-        <v>123.1259232994337</v>
+        <v>138.1411754544991</v>
       </c>
       <c r="P17" t="n">
-        <v>127.4696992053124</v>
+        <v>137.772630447075</v>
       </c>
       <c r="Q17" t="n">
-        <v>140.5570288243627</v>
+        <v>136.6441837565701</v>
       </c>
       <c r="R17" t="n">
-        <v>133.6869779845677</v>
+        <v>136.7092428529778</v>
       </c>
       <c r="S17" t="n">
-        <v>152.3419521226381</v>
+        <v>137.8058960609704</v>
       </c>
       <c r="T17" t="n">
-        <v>102.2511444878837</v>
+        <v>141.2475181257408</v>
       </c>
       <c r="U17" t="n">
-        <v>147.1296744738832</v>
+        <v>147.5012741500376</v>
       </c>
       <c r="V17" t="n">
-        <v>140.0581749933837</v>
+        <v>145.9934261344264</v>
       </c>
       <c r="W17" t="n">
-        <v>118.2527216768725</v>
+        <v>142.4600225584024</v>
       </c>
       <c r="X17" t="n">
-        <v>148.0725085526952</v>
+        <v>140.3542725573475</v>
       </c>
       <c r="Y17" t="n">
-        <v>141.2795857688271</v>
+        <v>137.4427067842326</v>
       </c>
       <c r="Z17" t="n">
-        <v>143.0719939903192</v>
+        <v>134.5384098695489</v>
       </c>
       <c r="AA17" t="n">
-        <v>134.962667176399</v>
+        <v>133.9590438592427</v>
       </c>
       <c r="AB17" t="n">
-        <v>127.925969423353</v>
+        <v>132.2235741471414</v>
       </c>
       <c r="AC17" t="n">
-        <v>122.2393871314723</v>
+        <v>131.6869049844623</v>
       </c>
       <c r="AD17" t="n">
-        <v>141.9385854798002</v>
+        <v>133.3027584001177</v>
       </c>
       <c r="AE17" t="n">
-        <v>137.7781058926059</v>
+        <v>140.6010250099107</v>
       </c>
     </row>
     <row r="18">
@@ -2053,94 +2053,94 @@
         <v>100</v>
       </c>
       <c r="B18" t="n">
-        <v>158.6302191138787</v>
+        <v>127.7716924697555</v>
       </c>
       <c r="C18" t="n">
-        <v>234.0524108434929</v>
+        <v>169.6846066921252</v>
       </c>
       <c r="D18" t="n">
-        <v>209.1198939136739</v>
+        <v>190.2366149474721</v>
       </c>
       <c r="E18" t="n">
-        <v>207.2208703091127</v>
+        <v>189.9726247456072</v>
       </c>
       <c r="F18" t="n">
-        <v>282.6123271442659</v>
+        <v>192.2509923765942</v>
       </c>
       <c r="G18" t="n">
-        <v>164.013716459715</v>
+        <v>185.157475528549</v>
       </c>
       <c r="H18" t="n">
-        <v>146.7619933766329</v>
+        <v>183.6343791355106</v>
       </c>
       <c r="I18" t="n">
-        <v>158.3753940098495</v>
+        <v>173.4750625203358</v>
       </c>
       <c r="J18" t="n">
-        <v>150.6536239585679</v>
+        <v>159.2604944233758</v>
       </c>
       <c r="K18" t="n">
-        <v>139.0843139997759</v>
+        <v>147.0070724501082</v>
       </c>
       <c r="L18" t="n">
-        <v>148.8936259925369</v>
+        <v>145.2885257623411</v>
       </c>
       <c r="M18" t="n">
-        <v>166.8420245603303</v>
+        <v>142.2173056984283</v>
       </c>
       <c r="N18" t="n">
-        <v>136.0199126676505</v>
+        <v>140.4665845528796</v>
       </c>
       <c r="O18" t="n">
-        <v>157.5782414548714</v>
+        <v>138.8642234734053</v>
       </c>
       <c r="P18" t="n">
-        <v>167.6016533203571</v>
+        <v>137.0205633067602</v>
       </c>
       <c r="Q18" t="n">
-        <v>164.4964657905095</v>
+        <v>136.8433259337677</v>
       </c>
       <c r="R18" t="n">
-        <v>148.8699590710004</v>
+        <v>136.4921999759489</v>
       </c>
       <c r="S18" t="n">
-        <v>126.7998600657978</v>
+        <v>138.5891755589469</v>
       </c>
       <c r="T18" t="n">
-        <v>129.5650780438431</v>
+        <v>140.8788063217205</v>
       </c>
       <c r="U18" t="n">
-        <v>139.2093730557101</v>
+        <v>148.6491419975777</v>
       </c>
       <c r="V18" t="n">
-        <v>152.4735298331045</v>
+        <v>146.6133752352088</v>
       </c>
       <c r="W18" t="n">
-        <v>139.0272628277182</v>
+        <v>142.8942599296309</v>
       </c>
       <c r="X18" t="n">
-        <v>142.7531971022987</v>
+        <v>140.4172549263456</v>
       </c>
       <c r="Y18" t="n">
-        <v>131.8540805098157</v>
+        <v>139.4372933465536</v>
       </c>
       <c r="Z18" t="n">
-        <v>131.7656529984382</v>
+        <v>136.4279380631375</v>
       </c>
       <c r="AA18" t="n">
-        <v>145.4332334251519</v>
+        <v>133.8396099027319</v>
       </c>
       <c r="AB18" t="n">
-        <v>137.5786495885553</v>
+        <v>133.0835658522899</v>
       </c>
       <c r="AC18" t="n">
-        <v>126.1239306560245</v>
+        <v>132.0999845237096</v>
       </c>
       <c r="AD18" t="n">
-        <v>144.8468583667784</v>
+        <v>133.8549034516935</v>
       </c>
       <c r="AE18" t="n">
-        <v>155.9746436468029</v>
+        <v>141.390010855582</v>
       </c>
     </row>
     <row r="19">
@@ -2148,94 +2148,94 @@
         <v>100</v>
       </c>
       <c r="B19" t="n">
-        <v>155.6427287310324</v>
+        <v>130.2340966310251</v>
       </c>
       <c r="C19" t="n">
-        <v>184.7918478095811</v>
+        <v>171.2202321313146</v>
       </c>
       <c r="D19" t="n">
-        <v>188.0111575174872</v>
+        <v>190.1405735606668</v>
       </c>
       <c r="E19" t="n">
-        <v>244.7520061389154</v>
+        <v>194.8702444953277</v>
       </c>
       <c r="F19" t="n">
-        <v>169.1348062482244</v>
+        <v>192.3566138659018</v>
       </c>
       <c r="G19" t="n">
-        <v>235.9844228409727</v>
+        <v>189.7775635982932</v>
       </c>
       <c r="H19" t="n">
-        <v>159.3888739237721</v>
+        <v>179.8763267022059</v>
       </c>
       <c r="I19" t="n">
-        <v>163.6973773781918</v>
+        <v>171.0106907952</v>
       </c>
       <c r="J19" t="n">
-        <v>156.1849068054572</v>
+        <v>159.1363022589513</v>
       </c>
       <c r="K19" t="n">
-        <v>137.8483329961541</v>
+        <v>146.2753014361001</v>
       </c>
       <c r="L19" t="n">
-        <v>137.4489085266773</v>
+        <v>145.5503733900323</v>
       </c>
       <c r="M19" t="n">
-        <v>139.6789570914229</v>
+        <v>142.5248655100806</v>
       </c>
       <c r="N19" t="n">
-        <v>124.8689234141078</v>
+        <v>141.0205238938716</v>
       </c>
       <c r="O19" t="n">
-        <v>135.3164725311934</v>
+        <v>139.1306260686554</v>
       </c>
       <c r="P19" t="n">
-        <v>139.1814210421281</v>
+        <v>139.2019967097125</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.6118757036761</v>
+        <v>139.5715687972354</v>
       </c>
       <c r="R19" t="n">
-        <v>136.2422664784551</v>
+        <v>137.6047433033409</v>
       </c>
       <c r="S19" t="n">
-        <v>144.7520475112321</v>
+        <v>139.7714124471736</v>
       </c>
       <c r="T19" t="n">
-        <v>152.0772605015233</v>
+        <v>142.6917166180172</v>
       </c>
       <c r="U19" t="n">
-        <v>144.78990996283</v>
+        <v>149.1007323129306</v>
       </c>
       <c r="V19" t="n">
-        <v>151.8632889767971</v>
+        <v>146.5150851975199</v>
       </c>
       <c r="W19" t="n">
-        <v>139.8254802476595</v>
+        <v>143.5070874338094</v>
       </c>
       <c r="X19" t="n">
-        <v>152.39636097051</v>
+        <v>141.2090446747223</v>
       </c>
       <c r="Y19" t="n">
-        <v>132.9134040532422</v>
+        <v>138.2722406021771</v>
       </c>
       <c r="Z19" t="n">
-        <v>146.6447161823684</v>
+        <v>135.4782611141165</v>
       </c>
       <c r="AA19" t="n">
-        <v>128.8331995327425</v>
+        <v>134.924572180353</v>
       </c>
       <c r="AB19" t="n">
-        <v>126.3127085353632</v>
+        <v>133.4696719954518</v>
       </c>
       <c r="AC19" t="n">
-        <v>116.3901238651342</v>
+        <v>132.8149878347711</v>
       </c>
       <c r="AD19" t="n">
-        <v>141.4313780515656</v>
+        <v>134.2448248893282</v>
       </c>
       <c r="AE19" t="n">
-        <v>154.9041371571323</v>
+        <v>142.2879352536688</v>
       </c>
     </row>
     <row r="20">
@@ -2243,94 +2243,94 @@
         <v>100</v>
       </c>
       <c r="B20" t="n">
-        <v>177.3031766865008</v>
+        <v>129.3451530537734</v>
       </c>
       <c r="C20" t="n">
-        <v>146.9984898160533</v>
+        <v>174.6588288982377</v>
       </c>
       <c r="D20" t="n">
-        <v>210.5610824368815</v>
+        <v>190.9183069419971</v>
       </c>
       <c r="E20" t="n">
-        <v>142.5716531362063</v>
+        <v>197.3062661249992</v>
       </c>
       <c r="F20" t="n">
-        <v>176.6204127884271</v>
+        <v>194.7581827851212</v>
       </c>
       <c r="G20" t="n">
-        <v>214.4629275290169</v>
+        <v>189.8473382894208</v>
       </c>
       <c r="H20" t="n">
-        <v>133.6584846133086</v>
+        <v>178.8963967719097</v>
       </c>
       <c r="I20" t="n">
-        <v>161.4410279670131</v>
+        <v>171.4183377693356</v>
       </c>
       <c r="J20" t="n">
-        <v>145.3278504952247</v>
+        <v>159.1287877652946</v>
       </c>
       <c r="K20" t="n">
-        <v>136.0921314683066</v>
+        <v>146.5216074466691</v>
       </c>
       <c r="L20" t="n">
-        <v>144.2900507572359</v>
+        <v>145.6348225029039</v>
       </c>
       <c r="M20" t="n">
-        <v>149.3524702839037</v>
+        <v>143.5030691809072</v>
       </c>
       <c r="N20" t="n">
-        <v>142.1807304488653</v>
+        <v>142.2292267460712</v>
       </c>
       <c r="O20" t="n">
-        <v>156.7156357099481</v>
+        <v>141.2535438237722</v>
       </c>
       <c r="P20" t="n">
-        <v>116.8592825915966</v>
+        <v>139.4127013291154</v>
       </c>
       <c r="Q20" t="n">
-        <v>115.6760193218492</v>
+        <v>138.1557791326427</v>
       </c>
       <c r="R20" t="n">
-        <v>130.1342779635225</v>
+        <v>138.5035794106669</v>
       </c>
       <c r="S20" t="n">
-        <v>117.1484360532361</v>
+        <v>140.5771084591426</v>
       </c>
       <c r="T20" t="n">
-        <v>177.0709402989276</v>
+        <v>144.213920554459</v>
       </c>
       <c r="U20" t="n">
-        <v>151.870708610345</v>
+        <v>148.7576910174209</v>
       </c>
       <c r="V20" t="n">
-        <v>145.2407673016956</v>
+        <v>148.1340007994368</v>
       </c>
       <c r="W20" t="n">
-        <v>143.8444287547917</v>
+        <v>144.8169171725046</v>
       </c>
       <c r="X20" t="n">
-        <v>137.5435434528365</v>
+        <v>142.1118379077577</v>
       </c>
       <c r="Y20" t="n">
-        <v>133.1612926656734</v>
+        <v>139.0124835068178</v>
       </c>
       <c r="Z20" t="n">
-        <v>128.5995761830463</v>
+        <v>137.4240602119425</v>
       </c>
       <c r="AA20" t="n">
-        <v>138.6935809401963</v>
+        <v>134.700016823885</v>
       </c>
       <c r="AB20" t="n">
-        <v>119.1119194574295</v>
+        <v>133.1456875627249</v>
       </c>
       <c r="AC20" t="n">
-        <v>130.7747808319588</v>
+        <v>132.9316407637939</v>
       </c>
       <c r="AD20" t="n">
-        <v>141.4067005062598</v>
+        <v>135.0449303780041</v>
       </c>
       <c r="AE20" t="n">
-        <v>136.2919372033753</v>
+        <v>142.8380615548995</v>
       </c>
     </row>
     <row r="21">
@@ -2338,94 +2338,94 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>120.4041415442245</v>
+        <v>154.824360019439</v>
       </c>
       <c r="C21" t="n">
-        <v>204.0266152277506</v>
+        <v>186.9671326832955</v>
       </c>
       <c r="D21" t="n">
-        <v>194.1451075117108</v>
+        <v>196.4029448075296</v>
       </c>
       <c r="E21" t="n">
-        <v>212.3497572464485</v>
+        <v>199.6887572779397</v>
       </c>
       <c r="F21" t="n">
-        <v>210.4353768296222</v>
+        <v>194.7895530583451</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1630266708486</v>
+        <v>187.1903518394663</v>
       </c>
       <c r="H21" t="n">
-        <v>168.2991888483342</v>
+        <v>179.5875991124254</v>
       </c>
       <c r="I21" t="n">
-        <v>152.7695877900235</v>
+        <v>170.0713035230311</v>
       </c>
       <c r="J21" t="n">
-        <v>160.9881327115855</v>
+        <v>158.5882095037536</v>
       </c>
       <c r="K21" t="n">
-        <v>162.1390714734197</v>
+        <v>145.8723344751465</v>
       </c>
       <c r="L21" t="n">
-        <v>151.0383699692391</v>
+        <v>145.1360569663952</v>
       </c>
       <c r="M21" t="n">
-        <v>159.7838626712517</v>
+        <v>143.890242427631</v>
       </c>
       <c r="N21" t="n">
-        <v>161.3727720785061</v>
+        <v>140.363028301634</v>
       </c>
       <c r="O21" t="n">
-        <v>145.794416858007</v>
+        <v>139.2095153478506</v>
       </c>
       <c r="P21" t="n">
-        <v>158.8465508826373</v>
+        <v>139.0082963651429</v>
       </c>
       <c r="Q21" t="n">
-        <v>146.768429472636</v>
+        <v>139.2640363449542</v>
       </c>
       <c r="R21" t="n">
-        <v>135.2009389940557</v>
+        <v>140.1164987305643</v>
       </c>
       <c r="S21" t="n">
-        <v>153.7351720622538</v>
+        <v>141.7954858363984</v>
       </c>
       <c r="T21" t="n">
-        <v>137.5391704652619</v>
+        <v>143.5993832632184</v>
       </c>
       <c r="U21" t="n">
-        <v>148.3211635923955</v>
+        <v>149.9127627077278</v>
       </c>
       <c r="V21" t="n">
-        <v>149.4087264388512</v>
+        <v>146.8704696016872</v>
       </c>
       <c r="W21" t="n">
-        <v>133.1912779949163</v>
+        <v>144.2041351806517</v>
       </c>
       <c r="X21" t="n">
-        <v>130.4227801607442</v>
+        <v>141.1416288229953</v>
       </c>
       <c r="Y21" t="n">
-        <v>129.0660046104746</v>
+        <v>139.0363857940732</v>
       </c>
       <c r="Z21" t="n">
-        <v>145.964765558015</v>
+        <v>136.9128381500828</v>
       </c>
       <c r="AA21" t="n">
-        <v>129.3142822238793</v>
+        <v>134.7244544130483</v>
       </c>
       <c r="AB21" t="n">
-        <v>169.1300288306603</v>
+        <v>132.8475614914968</v>
       </c>
       <c r="AC21" t="n">
-        <v>146.6531753444697</v>
+        <v>132.7183656739457</v>
       </c>
       <c r="AD21" t="n">
-        <v>126.3971186104912</v>
+        <v>134.6683517492209</v>
       </c>
       <c r="AE21" t="n">
-        <v>148.0661924843304</v>
+        <v>143.4011964429407</v>
       </c>
     </row>
   </sheetData>
